--- a/Documentação/Backlog/Sprint-Backlog.xlsx
+++ b/Documentação/Backlog/Sprint-Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Plant.ai\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
   <si>
     <t>RA</t>
   </si>
@@ -219,6 +220,30 @@
   </si>
   <si>
     <t>Ponto Feitos:</t>
+  </si>
+  <si>
+    <t>Sprint Backlog - Data Final(27/11)</t>
+  </si>
+  <si>
+    <t>3ªSprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxograma de processo de atendimento ao cliente </t>
+  </si>
+  <si>
+    <t>Ferramenta de Help Desk integrada ao site institucional</t>
+  </si>
+  <si>
+    <t>Dashboard de exibição dos gráficos</t>
+  </si>
+  <si>
+    <t>Modelagem lógica do banco de dados</t>
+  </si>
+  <si>
+    <t>Dicionário de dados</t>
+  </si>
+  <si>
+    <t>Caio Cesar</t>
   </si>
 </sst>
 </file>
@@ -228,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,16 +302,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -572,11 +616,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,12 +681,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,6 +714,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,12 +733,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Ênfase6" xfId="1" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -957,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +1041,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="7"/>
@@ -982,7 +1054,7 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -1003,97 +1075,97 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1192084</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="41" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1192099</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1192091</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1192027</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1192079</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>1192107</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
+      <c r="B10" s="42" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="32">
         <f>SUM(D12:D19)</f>
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1186,13 +1258,13 @@
       <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="C19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="25">
         <v>21</v>
       </c>
       <c r="E19" s="12" t="s">
@@ -1201,23 +1273,23 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="33" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="32">
         <f>SUM(D23:D30)</f>
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1234,7 +1306,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1251,7 +1323,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1268,7 +1340,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="29" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1285,7 +1357,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -1302,7 +1374,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1319,7 +1391,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -1336,16 +1408,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="27">
+      <c r="C30" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="25">
         <v>21</v>
       </c>
       <c r="E30" s="12" t="s">
@@ -1357,23 +1429,23 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36" t="s">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="32">
         <f>SUM(D34:D41)</f>
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -1390,7 +1462,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="29" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -1407,7 +1479,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="29" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -1424,7 +1496,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="29" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -1441,7 +1513,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1517,4 +1589,449 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="74.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="34"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1192084</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1192099</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1192091</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1192027</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1192079</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1192107</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="32">
+        <f>SUM(D12:D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28"/>
+      <c r="B22" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="32">
+        <f>SUM(D23:D30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28"/>
+      <c r="B34" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="32">
+        <f>SUM(D34:D41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B34:E34"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentação/Backlog/Sprint-Backlog.xlsx
+++ b/Documentação/Backlog/Sprint-Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Plant.ai\Documentação\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="86">
   <si>
     <t>RA</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Ponto Feitos:</t>
   </si>
   <si>
-    <t>Sprint Backlog - Data Final(27/11)</t>
-  </si>
-  <si>
     <t>3ªSprint</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Ferramenta de Help Desk integrada ao site institucional</t>
   </si>
   <si>
-    <t>Dashboard de exibição dos gráficos</t>
-  </si>
-  <si>
     <t>Modelagem lógica do banco de dados</t>
   </si>
   <si>
@@ -244,6 +238,51 @@
   </si>
   <si>
     <t>Caio Cesar</t>
+  </si>
+  <si>
+    <t>Sprint Backlog - Data Final(25/11)</t>
+  </si>
+  <si>
+    <t>Banca</t>
+  </si>
+  <si>
+    <t>Ajustar o Site Institucional</t>
+  </si>
+  <si>
+    <t>Dashboard de exibição dos gráficos (parte1)</t>
+  </si>
+  <si>
+    <t>RP13</t>
+  </si>
+  <si>
+    <t>Calculo de cuidados da planta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar as redes sociais </t>
+  </si>
+  <si>
+    <t>Desejavel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backlog </t>
+  </si>
+  <si>
+    <t>RP14</t>
+  </si>
+  <si>
+    <t>Script de Criação do Banco de Dados</t>
+  </si>
+  <si>
+    <t>Slide da apresentação(parte1)</t>
+  </si>
+  <si>
+    <t>RP15</t>
+  </si>
+  <si>
+    <t>RP16</t>
+  </si>
+  <si>
+    <t>RP17</t>
   </si>
 </sst>
 </file>
@@ -253,7 +292,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +354,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +391,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -629,16 +697,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,9 +827,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -718,21 +865,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,9 +878,68 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="40% - Ênfase6" xfId="1" builtinId="51"/>
+    <cellStyle name="Estilo 1" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1029,7 +1220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1041,542 +1232,542 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1192084</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1192099</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>1192091</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>1192027</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>1192079</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1192107</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>72</v>
+      <c r="B10" s="35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="30">
         <f>SUM(D12:D19)</f>
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9">
         <v>21</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9">
         <v>21</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9">
         <v>21</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9">
         <v>3</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="C18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9">
         <v>13</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="25">
+      <c r="C19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="23">
         <v>21</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="31" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="30">
         <f>SUM(D23:D30)</f>
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="C23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="9">
         <v>13</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>5</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>5</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>5</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>5</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="9">
         <v>3</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>3</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="25">
+      <c r="C30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="23">
         <v>21</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="8"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28"/>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="31" t="s">
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="30">
         <f>SUM(D34:D41)</f>
         <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>21</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="10">
+      <c r="C36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="9">
         <v>13</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="C37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="9">
         <v>8</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="10">
+      <c r="C38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="9">
         <v>21</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="C39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="9">
         <v>21</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="10">
+      <c r="C40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="9">
         <v>8</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="10">
+      <c r="C41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="9">
         <v>13</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="14">
+      <c r="C42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="13">
         <v>8</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1593,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,428 +1801,536 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1192084</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1192099</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1192091</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1192027</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1192079</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1192107</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="48"/>
+      <c r="B13" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="30">
+        <f>SUM(D12:D24)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9">
+        <v>21</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9">
+        <v>13</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9">
+        <v>13</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9">
+        <v>8</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="9">
+        <v>13</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="9">
+        <v>21</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="9">
+        <v>13</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="57"/>
+    </row>
+    <row r="22" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="9">
+        <v>13</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="9">
+        <v>13</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="30">
+        <f>SUM(D28:D35)</f>
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1192084</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1192099</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1192091</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1192027</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>1192079</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>1192107</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="31" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="51"/>
+      <c r="B39" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="32">
-        <f>SUM(D12:D19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="32">
-        <f>SUM(D23:D30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="28"/>
-      <c r="B34" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="32">
-        <f>SUM(D34:D41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="G39" s="30">
+        <f>SUM(D39:D46)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="B40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="9">
+        <v>8</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
+      <c r="B47" s="12"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>